--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -29,13 +29,22 @@
     <t xml:space="preserve">TestCaseName</t>
   </si>
   <si>
-    <t xml:space="preserve">HTTP_Methods</t>
+    <t xml:space="preserve">URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatusCode</t>
   </si>
   <si>
     <t xml:space="preserve">TC001</t>
   </si>
   <si>
-    <t xml:space="preserve">TestCase1</t>
+    <t xml:space="preserve">Verifying status code of product URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:3030/products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
   </si>
 </sst>
 </file>
@@ -211,17 +220,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.32"/>
@@ -239,13 +248,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,6 +273,9 @@
       <c r="B7" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost:3030/products"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -32,7 +32,10 @@
     <t xml:space="preserve">URI</t>
   </si>
   <si>
-    <t xml:space="preserve">StatusCode</t>
+    <t xml:space="preserve">ResponseCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestBody</t>
   </si>
   <si>
     <t xml:space="preserve">TC001</t>
@@ -45,6 +48,50 @@
   </si>
   <si>
     <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST new record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name: name_sarkar_5,
+type: type_sarkar_5,
+price: 500,
+shipping: 50,
+upc: upc_sarkar_5,
+description: desc_sarkar_5,
+manufacturer: manufac_sarkar_5,
+Model: model_sarkar_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT command verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name: name_sarkar_PUT_8,
+type: type_sarkar_5,
+Price: 7000,
+Shipping: 900,
+upc: upc_sarkar_5,
+description: desc_sarkar_5,
+manufacturer: manufac_sarkar_5,
+Model: model_sarkar_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE command verification</t>
   </si>
 </sst>
 </file>
@@ -126,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,6 +188,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -220,19 +275,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="7" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.52"/>
@@ -251,30 +306,80 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://localhost:3030/products"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://localhost:3030/products"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">DELETE command verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -89,6 +89,19 @@
   </si>
   <si>
     <t xml:space="preserve">TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATCH command verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:3030/products/9999765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price: 18000,
+Description: desc_sarkar_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC005</t>
   </si>
   <si>
     <t xml:space="preserve">DELETE command verification</t>
@@ -176,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,6 +212,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -280,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,27 +379,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://localhost:3030/products"/>
     <hyperlink ref="C3" r:id="rId2" display="http://localhost:3030/products"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://localhost:3030/products/9999765"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -298,7 +298,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t xml:space="preserve">404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get product with ID of 9132294 (sku)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:3030/products/9132294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get all products, limit to 1 result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:3030/products?$limit=1</t>
   </si>
 </sst>
 </file>
@@ -295,10 +313,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,11 +428,41 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://localhost:3030/products"/>
     <hyperlink ref="C3" r:id="rId2" display="http://localhost:3030/products"/>
     <hyperlink ref="C5" r:id="rId3" display="http://localhost:3030/products/9999765"/>
+    <hyperlink ref="C7" r:id="rId4" display="http://localhost:3030/products/9132294"/>
+    <hyperlink ref="C8" r:id="rId5" display="http://localhost:3030/products?$limit=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -126,6 +126,41 @@
   </si>
   <si>
     <t xml:space="preserve">http://localhost:3030/products?$limit=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative testing- having a mandatory request payload field blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name: name_sarkar_5,
+Type: ,
+Price: 800,
+shipping: 50,
+upc: upc_sarkar_5,
+description: desc_sarkar_5,
+manufacturer: manufac_sarkar_5,
+Model: model_sarkar_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative testing- having a mandatory request payload field differing with input type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name: name_sarkar_PUT_8,
+type: type_sarkar_5,
+Price: 70hghdgs,
+Shipping: 900,
+upc: upc_sarkar_5,
+description: desc_sarkar_5,
+manufacturer: manufac_sarkar_5,
+Model: model_sarkar_5</t>
   </si>
 </sst>
 </file>
@@ -313,10 +348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,6 +491,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://localhost:3030/products"/>
@@ -463,6 +532,8 @@
     <hyperlink ref="C5" r:id="rId3" display="http://localhost:3030/products/9999765"/>
     <hyperlink ref="C7" r:id="rId4" display="http://localhost:3030/products/9132294"/>
     <hyperlink ref="C8" r:id="rId5" display="http://localhost:3030/products?$limit=1"/>
+    <hyperlink ref="C9" r:id="rId6" display="http://localhost:3030/products"/>
+    <hyperlink ref="C10" r:id="rId7" display="http://localhost:3030/products"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -159,6 +159,38 @@
 Shipping: 900,
 upc: upc_sarkar_5,
 description: desc_sarkar_5,
+manufacturer: manufac_sarkar_5,
+Model: model_sarkar_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation of sending Price field value as decimal instead of integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name: name_sarkar_PUT_8,
+type: type_sarkar_5,
+Price: 600.54,
+Shipping: 900,
+upc: upc_sarkar_5,
+description: desc_sarkar_5,
+manufacturer: manufac_sarkar_5,
+Model: model_sarkar_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation of sending special character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: %^^%^&amp;&amp;^%#@#,
+type: type_sarkar_5,
+price: 500,
+shipping: 50,
+upc: upc_sarkar_5,
+Description: *^%$##@#,
 manufacturer: manufac_sarkar_5,
 Model: model_sarkar_5</t>
   </si>
@@ -242,33 +274,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -348,181 +372,215 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="7" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="7" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="1" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -534,6 +592,8 @@
     <hyperlink ref="C8" r:id="rId5" display="http://localhost:3030/products?$limit=1"/>
     <hyperlink ref="C9" r:id="rId6" display="http://localhost:3030/products"/>
     <hyperlink ref="C10" r:id="rId7" display="http://localhost:3030/products"/>
+    <hyperlink ref="C11" r:id="rId8" display="http://localhost:3030/products"/>
+    <hyperlink ref="C12" r:id="rId9" display="http://localhost:3030/products"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/com/api/data/api_data.xlsx
+++ b/src/main/java/com/api/data/api_data.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">PATCH command verification</t>
   </si>
   <si>
-    <t xml:space="preserve">http://localhost:3030/products/9999765</t>
+    <t xml:space="preserve">http://localhost:3030/products/9999683</t>
   </si>
   <si>
     <t xml:space="preserve">Price: 18000,
@@ -368,17 +368,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.51"/>
@@ -386,8 +386,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="7" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="1" width="8.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="7" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1020" style="1" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,7 +456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -587,13 +587,12 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://localhost:3030/products"/>
     <hyperlink ref="C3" r:id="rId2" display="http://localhost:3030/products"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://localhost:3030/products/9999765"/>
-    <hyperlink ref="C7" r:id="rId4" display="http://localhost:3030/products/9132294"/>
-    <hyperlink ref="C8" r:id="rId5" display="http://localhost:3030/products?$limit=1"/>
-    <hyperlink ref="C9" r:id="rId6" display="http://localhost:3030/products"/>
-    <hyperlink ref="C10" r:id="rId7" display="http://localhost:3030/products"/>
-    <hyperlink ref="C11" r:id="rId8" display="http://localhost:3030/products"/>
-    <hyperlink ref="C12" r:id="rId9" display="http://localhost:3030/products"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://localhost:3030/products/9132294"/>
+    <hyperlink ref="C8" r:id="rId4" display="http://localhost:3030/products?$limit=1"/>
+    <hyperlink ref="C9" r:id="rId5" display="http://localhost:3030/products"/>
+    <hyperlink ref="C10" r:id="rId6" display="http://localhost:3030/products"/>
+    <hyperlink ref="C11" r:id="rId7" display="http://localhost:3030/products"/>
+    <hyperlink ref="C12" r:id="rId8" display="http://localhost:3030/products"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -606,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -616,10 +615,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
